--- a/18 financial/具体计算.xlsx
+++ b/18 financial/具体计算.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="10125" activeTab="1"/>
+    <workbookView windowWidth="15630" windowHeight="10125" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>股票名称</t>
   </si>
@@ -157,6 +158,232 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>日期：2019.8.5</t>
+  </si>
+  <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>东方雨虹</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>劲嘉股份</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>华东医药</t>
+  </si>
+  <si>
+    <t>当前股价（元）</t>
+  </si>
+  <si>
+    <t>行业排名</t>
+  </si>
+  <si>
+    <t>3/42</t>
+  </si>
+  <si>
+    <t>1/42</t>
+  </si>
+  <si>
+    <t>1/37</t>
+  </si>
+  <si>
+    <t>2/49</t>
+  </si>
+  <si>
+    <t>1/49</t>
+  </si>
+  <si>
+    <t>1/60</t>
+  </si>
+  <si>
+    <t>2/52</t>
+  </si>
+  <si>
+    <t>2/103</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>当前PE（小于合理PE）</t>
+  </si>
+  <si>
+    <t>PE分位点（小于50%）</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>当前PB（小于8）</t>
+  </si>
+  <si>
+    <t>PB分位点（小于50%）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合理PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（PE估值法）：A、B中较小值</t>
+    </r>
+  </si>
+  <si>
+    <t>所属小队（PE取值区间）</t>
+  </si>
+  <si>
+    <t>白银小队</t>
+  </si>
+  <si>
+    <t>黄金小队</t>
+  </si>
+  <si>
+    <t>A1-合理PE（保守）</t>
+  </si>
+  <si>
+    <t>A2-合理PE（乐观）</t>
+  </si>
+  <si>
+    <t>B-十年PE中位数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X（PE增速）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=（合理PE/当前PE）∧（1/3）-1</t>
+    </r>
+  </si>
+  <si>
+    <t>PE增速-保守</t>
+  </si>
+  <si>
+    <t>PE增速-乐观</t>
+  </si>
+  <si>
+    <t>Y（净利润增速）
+（注：大于30%的取30%）</t>
+  </si>
+  <si>
+    <t>近2年净利润增速平均值*0.6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Z（股息率）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（结合分红率来看，高股息率且分红稳定的公司更有吸引力，能保持30%以上的公司就算有稳定的分红率）</t>
+    </r>
+  </si>
+  <si>
+    <t>股息率（越高越好）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N（预期收益率）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=（1+X）*（1+Y）+Z-1
+（N﹥20%买入，N﹤10%卖出）</t>
+    </r>
+  </si>
+  <si>
+    <t>N（保守）</t>
+  </si>
+  <si>
+    <t>N（乐观）</t>
+  </si>
+  <si>
+    <t>2008-2012年较稳定，2013-2017年逐年下降，2018年有所回升</t>
+  </si>
+  <si>
+    <t>2008-2010年分红率非常高，2011年开始下降，2012年未分红，2013年开始逐步恢复</t>
+  </si>
+  <si>
+    <t>2017年未分红</t>
+  </si>
+  <si>
+    <t>2010-2012年未分红，2016年至今分红率逐年下降</t>
+  </si>
+  <si>
+    <t>PE合理取值：黄金小队25-30；白银小队15-25；青铜小队10-15</t>
   </si>
 </sst>
 </file>
@@ -170,7 +397,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +415,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -345,7 +579,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,18 +588,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,12 +637,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +854,39 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -674,43 +953,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -819,10 +1065,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,36 +1077,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,204 +1113,276 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,70 +1817,69 @@
       </c>
     </row>
     <row r="4" spans="11:13">
-      <c r="K4" s="34">
+      <c r="K4" s="57">
         <f>H2*(1+J2/100)^I2*K2</f>
         <v>20.7491520712606</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="57">
         <f>H2*(1+J2/100)^I2*L2</f>
         <v>28.2905105549918</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="57">
         <f>H2*(1+J2/100)^I2*M2</f>
         <v>61.9696897871249</v>
       </c>
     </row>
     <row r="5" spans="11:13">
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="11:13">
-      <c r="K6" s="34">
+      <c r="K6" s="57">
         <f>POWER(K4-D2,1/I2)</f>
         <v>2.20557484691054</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="57">
         <f>POWER(L4-D2,1/I2)</f>
         <v>2.63380465665808</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="57">
         <f>POWER(M4-D2,1/I2)</f>
         <v>3.73130702845928</v>
       </c>
     </row>
     <row r="7" spans="11:13">
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="11:13">
-      <c r="K8" s="34">
+      <c r="K8" s="57">
         <f>(K4-D2)/(D2-G2)</f>
         <v>3.33203480473931</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="57">
         <f>(L4-D2)/(D2-G2)</f>
         <v>5.67407160092914</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="57">
         <f>(M4-D2)/(D2-G2)</f>
         <v>16.1334440332686</v>
       </c>
     </row>
-    <row r="10" customFormat="1"/>
     <row r="11" customFormat="1" spans="1:13">
       <c r="A11" t="s">
         <v>23</v>
@@ -1619,65 +1933,65 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="11:13">
-      <c r="K13" s="34">
+      <c r="K13" s="57">
         <f>H11*(1+J11/100)^I11*K11</f>
         <v>20.7491520712606</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="57">
         <f>H11*(1+J11/100)^I11*L11</f>
         <v>28.2905105549918</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="57">
         <f>H11*(1+J11/100)^I11*M11</f>
         <v>61.9696897871249</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="11:13">
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="58" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="11:13">
-      <c r="K15" s="34">
+      <c r="K15" s="57">
         <f>POWER(K13-D11,1/I11)</f>
         <v>2.20557484691054</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="57">
         <f>POWER(L13-D11,1/I11)</f>
         <v>2.63380465665808</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="57">
         <f>POWER(M13-D11,1/I11)</f>
         <v>3.73130702845928</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="11:13">
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="58" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="11:13">
-      <c r="K17" s="34">
+      <c r="K17" s="57">
         <f>(K13-D11)/(D11-G11)</f>
         <v>3.33203480473931</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="57">
         <f>(L13-D11)/(D11-G11)</f>
         <v>5.67407160092914</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="57">
         <f>(M13-D11)/(D11-G11)</f>
         <v>16.1334440332686</v>
       </c>
@@ -1733,7 +2047,7 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1753,439 +2067,439 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:11">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:11">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6">
+      <c r="B4" s="27"/>
+      <c r="C4" s="29">
         <v>10.02</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:11">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:11">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:11">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6">
+      <c r="B9" s="31"/>
+      <c r="C9" s="29">
         <v>6.8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:11">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6">
+      <c r="B10" s="31"/>
+      <c r="C10" s="29">
         <v>0.83</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6">
+      <c r="B11" s="31"/>
+      <c r="C11" s="29">
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:11">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6">
+      <c r="B12" s="27"/>
+      <c r="C12" s="29">
         <v>18.72</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:11">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="34">
         <v>10</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" ht="31" customHeight="1" spans="1:11">
-      <c r="A14" s="13"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="33">
         <v>12.6</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:11">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="38">
         <f>(C13+C14)/2</f>
         <v>11.3</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:11">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="40">
         <f>C10*(1+C12/100)^C11*C13</f>
         <v>13.8883213328384</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" ht="28" customHeight="1" spans="1:11">
-      <c r="A17" s="18"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="40">
         <f>C10*(1+C12/100)^C11*C14</f>
         <v>17.4992848793764</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:11">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="40">
         <f>C10*(1+C12/100)^C11*C15</f>
         <v>15.6938031061074</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:11">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="45">
         <f>POWER(C16-C4,1/C11)</f>
         <v>1.56978743154219</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" ht="32" customHeight="1" spans="1:11">
-      <c r="A20" s="18"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="47">
         <f>POWER(C17-C4,1/C11)</f>
         <v>1.95563000427576</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:11">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="43">
         <f>POWER(C18-C4,1/C11)</f>
         <v>1.78357518042579</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="27" customHeight="1" spans="1:11">
-      <c r="A22" s="25" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" s="26" customFormat="1" ht="27" customHeight="1" spans="1:11">
+      <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="50">
         <f>(C16-C4)/(C4-C9)</f>
         <v>1.2013420288318</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29" t="s">
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" s="26" customFormat="1" ht="24" customHeight="1" spans="1:11">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="53">
         <f>(C17-C4)/(C4-C9)</f>
         <v>2.32275927930944</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:11">
-      <c r="A24" s="31"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="43">
         <f>(C18-C4)/(C4-C9)</f>
         <v>1.76205065407062</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" ht="26" customHeight="1" spans="1:11">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="33"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2209,4 +2523,702 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G27" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.75" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="21.75" customHeight="1" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
+        <v>105</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22.34</v>
+      </c>
+      <c r="E3" s="3">
+        <v>942.43</v>
+      </c>
+      <c r="F3" s="3">
+        <v>11.72</v>
+      </c>
+      <c r="G3" s="3">
+        <v>52.98</v>
+      </c>
+      <c r="H3" s="3">
+        <v>51.6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>28.71</v>
+      </c>
+      <c r="J3" s="3">
+        <v>30.81</v>
+      </c>
+      <c r="K3" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="21.75" customHeight="1" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20.17</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24.62</v>
+      </c>
+      <c r="E5" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>23.29</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12.02</v>
+      </c>
+      <c r="H5" s="3">
+        <v>17.03</v>
+      </c>
+      <c r="I5" s="3">
+        <v>24.19</v>
+      </c>
+      <c r="J5" s="3">
+        <v>30.99</v>
+      </c>
+      <c r="K5" s="3">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.3422</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.236</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.6528</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.6263</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.5102</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.637</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.2059</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.561</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.0143</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.67</v>
+      </c>
+      <c r="E7" s="9">
+        <v>10.32</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>7.14</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.4067</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.4308</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.8421</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.4309</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.5234</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.7524</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.3297</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.8181</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.0953</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>15</v>
+      </c>
+      <c r="H11" s="4">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4">
+        <v>25</v>
+      </c>
+      <c r="J11" s="4">
+        <v>25</v>
+      </c>
+      <c r="K11" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4">
+        <v>22.77</v>
+      </c>
+      <c r="D12" s="4">
+        <v>32.64</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25.96</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20.72</v>
+      </c>
+      <c r="G12" s="4">
+        <v>11.95</v>
+      </c>
+      <c r="H12" s="4">
+        <v>15.41</v>
+      </c>
+      <c r="I12" s="4">
+        <v>32.96</v>
+      </c>
+      <c r="J12" s="4">
+        <v>29.09</v>
+      </c>
+      <c r="K12" s="4">
+        <v>32.37</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:K13" si="0">(C10/C5)^(1/3)-1</f>
+        <v>-0.00281738317647584</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.0991313258162017</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.0568634372993292</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.136410691811219</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.0594861887783134</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.110138946667931</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.0614342345611323</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.13582279493113</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.0230205897342859</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:F14" si="1">(C11/C5)^(1/3)-1</f>
+        <v>0.0293717868256698</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.0669305239935153</v>
+      </c>
+      <c r="E14" s="7">
+        <f>(E12/E5)^(1/3)-1</f>
+        <v>-0.0449425983728137</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.082299421398709</v>
+      </c>
+      <c r="G14" s="7">
+        <f>(G12/G5)^(1/3)-1</f>
+        <v>-0.00194498962798217</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" ref="H14:K14" si="2">(H11/H5)^(1/3)-1</f>
+        <v>-0.0414262386965395</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.0110393219689122</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.0690933255324152</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.0560438124851494</v>
+      </c>
+    </row>
+    <row r="15" ht="39.75" customHeight="1" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.108</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.1265</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.2759</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.0808</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.1855</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.10425</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.1422</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.0399</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="16" ht="64.5" customHeight="1" spans="1:11">
+      <c r="A16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.0305</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.0134</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.0154</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.0256</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.0396</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.024</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0.0209</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.0226</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0.0106</v>
+      </c>
+    </row>
+    <row r="17" ht="32.25" customHeight="1" spans="1:11">
+      <c r="A17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="19">
+        <f t="shared" ref="C17:J17" si="3">(1+C13)*(1+C15)+C16-1</f>
+        <v>0.135378339440465</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" ref="D17:G17" si="4">(1+D13)*(1+D15)-1</f>
+        <v>0.0148285614680488</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="3"/>
+        <v>0.218747940349786</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="4"/>
+        <v>-0.0666326757095655</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="4"/>
+        <v>0.114979123203309</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="3"/>
+        <v>0.00662906814193698</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="3"/>
+        <v>0.0929298172842745</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="3"/>
+        <v>-0.0787421244488826</v>
+      </c>
+      <c r="K17" s="19">
+        <f>(1+K13)*(1+K15)-1</f>
+        <v>0.177496698784163</v>
+      </c>
+    </row>
+    <row r="18" ht="32.25" customHeight="1" spans="1:11">
+      <c r="A18" s="14"/>
+      <c r="B18" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" ref="C18:J18" si="5">(1+C14)*(1+C15)+C16-1</f>
+        <v>0.171043939802842</v>
+      </c>
+      <c r="D18" s="21">
+        <f t="shared" ref="D18:G18" si="6">(1+D14)*(1+D15)-1</f>
+        <v>0.0511027647213051</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="5"/>
+        <v>0.233957738736127</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="6"/>
+        <v>-0.00814921464772478</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="6"/>
+        <v>0.183194214796027</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="5"/>
+        <v>0.0825050759193462</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="5"/>
+        <v>0.175709113552891</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="5"/>
+        <v>-0.00935014922115862</v>
+      </c>
+      <c r="K18" s="21">
+        <f>(1+K14)*(1+K15)-1</f>
+        <v>0.215506428170407</v>
+      </c>
+    </row>
+    <row r="19" ht="99.75" customHeight="1" spans="1:11">
+      <c r="A19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="23.25" customHeight="1" spans="1:11">
+      <c r="A20" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/18 financial/具体计算.xlsx
+++ b/18 financial/具体计算.xlsx
@@ -4,153 +4,119 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15630" windowHeight="10125" activeTab="2"/>
+    <workbookView windowWidth="21510" windowHeight="10125"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="自定义估算" sheetId="2" r:id="rId1"/>
+    <sheet name="原有预期收益率估算" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
-  <si>
-    <t>股票名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+  <si>
+    <t>淡蓝色部分需要填写</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>梅花生物</t>
+  </si>
+  <si>
+    <t>杉杉股份</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
+  </si>
+  <si>
+    <t>新疆天业</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>三七互娱</t>
+  </si>
+  <si>
+    <t>买入股价（元）</t>
   </si>
   <si>
     <t>所属行业</t>
   </si>
   <si>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>医药</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
     <t>股票类型</t>
   </si>
   <si>
-    <t>买入价格</t>
+    <t>成长股</t>
   </si>
   <si>
     <t>估值方式</t>
   </si>
   <si>
-    <t>基础财务增长</t>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>基础值</t>
+  </si>
+  <si>
+    <t>每股收益</t>
   </si>
   <si>
     <t>止损位</t>
   </si>
   <si>
-    <t>每股基础值</t>
-  </si>
-  <si>
-    <t>时间区间</t>
-  </si>
-  <si>
-    <t>增速</t>
-  </si>
-  <si>
-    <t>预计倍数低</t>
-  </si>
-  <si>
-    <t>预计倍数中</t>
-  </si>
-  <si>
-    <t>预计倍数高</t>
-  </si>
-  <si>
-    <t>梅花生物</t>
-  </si>
-  <si>
-    <t>饲料</t>
-  </si>
-  <si>
-    <t>成长</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>每股收益</t>
-  </si>
-  <si>
-    <t>价格低</t>
-  </si>
-  <si>
-    <t>价格中</t>
-  </si>
-  <si>
-    <t>价格高</t>
+    <t>每股基础值数值</t>
+  </si>
+  <si>
+    <t>时间区间（3年）</t>
+  </si>
+  <si>
+    <t>增速（注：大于30%的取30%）</t>
+  </si>
+  <si>
+    <t>预计倍数（如pe、pb、ps）</t>
+  </si>
+  <si>
+    <t>保守倍数</t>
+  </si>
+  <si>
+    <t>乐观倍数</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>保守</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>中位</t>
   </si>
   <si>
     <t>复合收益率</t>
-  </si>
-  <si>
-    <t>益损比</t>
-  </si>
-  <si>
-    <t>杉杉股份</t>
-  </si>
-  <si>
-    <t>收益</t>
-  </si>
-  <si>
-    <t>天赐材料</t>
-  </si>
-  <si>
-    <t>新疆天业</t>
-  </si>
-  <si>
-    <t>复星医药</t>
-  </si>
-  <si>
-    <t>三七互娱</t>
-  </si>
-  <si>
-    <t>淡蓝色部分需要填写</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>买入股价（元）</t>
-  </si>
-  <si>
-    <t>成长股</t>
-  </si>
-  <si>
-    <t>基础值</t>
-  </si>
-  <si>
-    <t>每股基础值数值</t>
-  </si>
-  <si>
-    <t>时间区间（3年）</t>
-  </si>
-  <si>
-    <t>增速（注：大于30%的取30%）</t>
-  </si>
-  <si>
-    <t>预计倍数（如pe、pb、ps）</t>
-  </si>
-  <si>
-    <t>保守倍数</t>
-  </si>
-  <si>
-    <t>乐观倍数</t>
-  </si>
-  <si>
-    <t>中位数</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>保守</t>
-  </si>
-  <si>
-    <t>乐观</t>
-  </si>
-  <si>
-    <t>中位</t>
   </si>
   <si>
     <t>益损比
@@ -397,7 +363,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,13 +389,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -579,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +583,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -637,12 +608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,33 +1042,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,97 +1081,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,19 +1275,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,28 +1305,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,11 +1347,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1704,351 +1669,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="5" width="8.875" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>10.02</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>6.8</v>
-      </c>
-      <c r="H2">
-        <v>0.83</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>18.72</v>
-      </c>
-      <c r="K2">
-        <v>14.94</v>
-      </c>
-      <c r="L2">
-        <v>20.37</v>
-      </c>
-      <c r="M2">
-        <v>44.62</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13">
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="11:13">
-      <c r="K4" s="57">
-        <f>H2*(1+J2/100)^I2*K2</f>
-        <v>20.7491520712606</v>
-      </c>
-      <c r="L4" s="57">
-        <f>H2*(1+J2/100)^I2*L2</f>
-        <v>28.2905105549918</v>
-      </c>
-      <c r="M4" s="57">
-        <f>H2*(1+J2/100)^I2*M2</f>
-        <v>61.9696897871249</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13">
-      <c r="K5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13">
-      <c r="K6" s="57">
-        <f>POWER(K4-D2,1/I2)</f>
-        <v>2.20557484691054</v>
-      </c>
-      <c r="L6" s="57">
-        <f>POWER(L4-D2,1/I2)</f>
-        <v>2.63380465665808</v>
-      </c>
-      <c r="M6" s="57">
-        <f>POWER(M4-D2,1/I2)</f>
-        <v>3.73130702845928</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13">
-      <c r="K7" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="11:13">
-      <c r="K8" s="57">
-        <f>(K4-D2)/(D2-G2)</f>
-        <v>3.33203480473931</v>
-      </c>
-      <c r="L8" s="57">
-        <f>(L4-D2)/(D2-G2)</f>
-        <v>5.67407160092914</v>
-      </c>
-      <c r="M8" s="57">
-        <f>(M4-D2)/(D2-G2)</f>
-        <v>16.1334440332686</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:13">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>10.02</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>6.8</v>
-      </c>
-      <c r="H11">
-        <v>0.83</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>18.72</v>
-      </c>
-      <c r="K11">
-        <v>14.94</v>
-      </c>
-      <c r="L11">
-        <v>20.37</v>
-      </c>
-      <c r="M11">
-        <v>44.62</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="11:13">
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="11:13">
-      <c r="K13" s="57">
-        <f>H11*(1+J11/100)^I11*K11</f>
-        <v>20.7491520712606</v>
-      </c>
-      <c r="L13" s="57">
-        <f>H11*(1+J11/100)^I11*L11</f>
-        <v>28.2905105549918</v>
-      </c>
-      <c r="M13" s="57">
-        <f>H11*(1+J11/100)^I11*M11</f>
-        <v>61.9696897871249</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="11:13">
-      <c r="K14" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="11:13">
-      <c r="K15" s="57">
-        <f>POWER(K13-D11,1/I11)</f>
-        <v>2.20557484691054</v>
-      </c>
-      <c r="L15" s="57">
-        <f>POWER(L13-D11,1/I11)</f>
-        <v>2.63380465665808</v>
-      </c>
-      <c r="M15" s="57">
-        <f>POWER(M13-D11,1/I11)</f>
-        <v>3.73130702845928</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="11:13">
-      <c r="K16" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="11:13">
-      <c r="K17" s="57">
-        <f>(K13-D11)/(D11-G11)</f>
-        <v>3.33203480473931</v>
-      </c>
-      <c r="L17" s="57">
-        <f>(L13-D11)/(D11-G11)</f>
-        <v>5.67407160092914</v>
-      </c>
-      <c r="M17" s="57">
-        <f>(M13-D11)/(D11-G11)</f>
-        <v>16.1334440332686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2068,7 +1692,7 @@
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2085,7 +1709,7 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -2100,406 +1724,766 @@
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:11">
       <c r="A4" s="27" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="29">
         <v>10.02</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="29">
+        <v>24</v>
+      </c>
+      <c r="E4" s="29">
+        <v>47.59</v>
+      </c>
+      <c r="F4" s="29">
+        <v>5.89</v>
+      </c>
+      <c r="G4" s="29">
+        <v>29.79</v>
+      </c>
+      <c r="H4" s="29">
+        <v>18.015</v>
+      </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:11">
       <c r="A5" s="30" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:11">
       <c r="A6" s="30" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:11">
       <c r="A7" s="30" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:11">
       <c r="A8" s="30" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:11">
       <c r="A9" s="30" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="29">
         <v>6.8</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="D9" s="29">
+        <v>18.97</v>
+      </c>
+      <c r="E9" s="29">
+        <v>32.44</v>
+      </c>
+      <c r="F9" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="G9" s="29">
+        <v>26</v>
+      </c>
+      <c r="H9" s="29">
+        <v>10</v>
+      </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:11">
       <c r="A10" s="30" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="29">
         <v>0.83</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="D10" s="29">
+        <v>0.774</v>
+      </c>
+      <c r="E10" s="29">
+        <v>2.28</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1.5</v>
+      </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:11">
       <c r="A11" s="30" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="29">
         <v>3</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="D11" s="29">
+        <v>3</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3</v>
+      </c>
+      <c r="F11" s="29">
+        <v>3</v>
+      </c>
+      <c r="G11" s="29">
+        <v>3</v>
+      </c>
+      <c r="H11" s="29">
+        <v>3</v>
+      </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:11">
       <c r="A12" s="27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="29">
         <v>18.72</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="D12" s="29">
+        <v>15</v>
+      </c>
+      <c r="E12" s="29">
+        <v>30</v>
+      </c>
+      <c r="F12" s="29">
+        <v>30</v>
+      </c>
+      <c r="G12" s="29">
+        <v>30</v>
+      </c>
+      <c r="H12" s="29">
+        <v>30</v>
+      </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:11">
       <c r="A13" s="32" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C13" s="34">
         <v>10</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="D13" s="34">
+        <v>20</v>
+      </c>
+      <c r="E13" s="34">
+        <v>20</v>
+      </c>
+      <c r="F13" s="34">
+        <v>12.39</v>
+      </c>
+      <c r="G13" s="34">
+        <v>39.95</v>
+      </c>
+      <c r="H13" s="34">
+        <v>15</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" ht="31" customHeight="1" spans="1:11">
-      <c r="A14" s="36"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="33">
+        <v>27</v>
+      </c>
+      <c r="C14" s="36">
         <v>12.6</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="D14" s="36">
+        <v>30</v>
+      </c>
+      <c r="E14" s="36">
+        <v>35</v>
+      </c>
+      <c r="F14" s="36">
+        <v>15</v>
+      </c>
+      <c r="G14" s="36">
+        <v>35.12</v>
+      </c>
+      <c r="H14" s="36">
+        <v>33.17</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:11">
       <c r="A15" s="37"/>
       <c r="B15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="38">
+        <v>28</v>
+      </c>
+      <c r="C15" s="39">
         <f>(C13+C14)/2</f>
         <v>11.3</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="D15" s="39">
+        <f t="shared" ref="D15:K15" si="0">(D13+D14)/2</f>
+        <v>25</v>
+      </c>
+      <c r="E15" s="39">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="0"/>
+        <v>13.695</v>
+      </c>
+      <c r="G15" s="39">
+        <f t="shared" si="0"/>
+        <v>37.535</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" si="0"/>
+        <v>24.085</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:11">
-      <c r="A16" s="39" t="s">
-        <v>41</v>
+      <c r="A16" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="40">
+        <v>30</v>
+      </c>
+      <c r="C16" s="41">
         <f>C10*(1+C12/100)^C11*C13</f>
         <v>13.8883213328384</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="D16" s="41">
+        <f t="shared" ref="D16:K16" si="1">D10*(1+D12/100)^D11*D13</f>
+        <v>23.543145</v>
+      </c>
+      <c r="E16" s="41">
+        <f t="shared" si="1"/>
+        <v>100.1832</v>
+      </c>
+      <c r="F16" s="41">
+        <f t="shared" si="1"/>
+        <v>11.7049569</v>
+      </c>
+      <c r="G16" s="41">
+        <f t="shared" si="1"/>
+        <v>52.66209</v>
+      </c>
+      <c r="H16" s="41">
+        <f t="shared" si="1"/>
+        <v>49.4325</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" ht="28" customHeight="1" spans="1:11">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="40">
+        <v>31</v>
+      </c>
+      <c r="C17" s="41">
         <f>C10*(1+C12/100)^C11*C14</f>
         <v>17.4992848793764</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="D17" s="41">
+        <f t="shared" ref="D17:K17" si="2">D10*(1+D12/100)^D11*D14</f>
+        <v>35.3147175</v>
+      </c>
+      <c r="E17" s="41">
+        <f t="shared" si="2"/>
+        <v>175.3206</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="2"/>
+        <v>14.17065</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="2"/>
+        <v>46.295184</v>
+      </c>
+      <c r="H17" s="41">
+        <f t="shared" si="2"/>
+        <v>109.311735</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:11">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="40">
+        <v>32</v>
+      </c>
+      <c r="C18" s="41">
         <f>C10*(1+C12/100)^C11*C15</f>
         <v>15.6938031061074</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="D18" s="41">
+        <f t="shared" ref="D18:K18" si="3">D10*(1+D12/100)^D11*D15</f>
+        <v>29.42893125</v>
+      </c>
+      <c r="E18" s="41">
+        <f t="shared" si="3"/>
+        <v>137.7519</v>
+      </c>
+      <c r="F18" s="41">
+        <f t="shared" si="3"/>
+        <v>12.93780345</v>
+      </c>
+      <c r="G18" s="41">
+        <f t="shared" si="3"/>
+        <v>49.478637</v>
+      </c>
+      <c r="H18" s="41">
+        <f t="shared" si="3"/>
+        <v>79.3721175</v>
+      </c>
+      <c r="I18" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:11">
-      <c r="A19" s="39" t="s">
-        <v>21</v>
+      <c r="A19" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C19" s="45">
         <f>POWER(C16-C4,1/C11)</f>
         <v>1.56978743154219</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="D19" s="45">
+        <f t="shared" ref="D19:K19" si="4">POWER(D16-D4,1/D11)</f>
+        <v>-0.770180988545423</v>
+      </c>
+      <c r="E19" s="45">
+        <f t="shared" si="4"/>
+        <v>3.74665063899516</v>
+      </c>
+      <c r="F19" s="45">
+        <f t="shared" si="4"/>
+        <v>1.79824488385494</v>
+      </c>
+      <c r="G19" s="45">
+        <f t="shared" si="4"/>
+        <v>2.83858530678729</v>
+      </c>
+      <c r="H19" s="45">
+        <f t="shared" si="4"/>
+        <v>3.15542024719762</v>
+      </c>
+      <c r="I19" s="45" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="45" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="45" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="20" ht="32" customHeight="1" spans="1:11">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="46" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C20" s="47">
         <f>POWER(C17-C4,1/C11)</f>
         <v>1.95563000427576</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="D20" s="47">
+        <f t="shared" ref="D20:K20" si="5">POWER(D17-D4,1/D11)</f>
+        <v>2.24499083168793</v>
+      </c>
+      <c r="E20" s="47">
+        <f t="shared" si="5"/>
+        <v>5.03614606274692</v>
+      </c>
+      <c r="F20" s="47">
+        <f t="shared" si="5"/>
+        <v>2.02311922104365</v>
+      </c>
+      <c r="G20" s="47">
+        <f t="shared" si="5"/>
+        <v>2.54608827387445</v>
+      </c>
+      <c r="H20" s="47">
+        <f t="shared" si="5"/>
+        <v>4.50282513956162</v>
+      </c>
+      <c r="I20" s="47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:11">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="43">
+        <v>32</v>
+      </c>
+      <c r="C21" s="48">
         <f>POWER(C18-C4,1/C11)</f>
         <v>1.78357518042579</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="D21" s="48">
+        <f t="shared" ref="D21:K21" si="6">POWER(D18-D4,1/D11)</f>
+        <v>1.75753823029462</v>
+      </c>
+      <c r="E21" s="48">
+        <f t="shared" si="6"/>
+        <v>4.48409031991937</v>
+      </c>
+      <c r="F21" s="48">
+        <f t="shared" si="6"/>
+        <v>1.91727581780647</v>
+      </c>
+      <c r="G21" s="48">
+        <f t="shared" si="6"/>
+        <v>2.70025772574121</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="6"/>
+        <v>3.94416416436612</v>
+      </c>
+      <c r="I21" s="48" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="48" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="48" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="22" s="26" customFormat="1" ht="27" customHeight="1" spans="1:11">
-      <c r="A22" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="50">
+      <c r="A22" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="51">
         <f>(C16-C4)/(C4-C9)</f>
         <v>1.2013420288318</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="D22" s="51">
+        <f t="shared" ref="D22:K22" si="7">(D16-D4)/(D4-D9)</f>
+        <v>-0.0908260437375754</v>
+      </c>
+      <c r="E22" s="51">
+        <f t="shared" si="7"/>
+        <v>3.47149834983498</v>
+      </c>
+      <c r="F22" s="51">
+        <f t="shared" si="7"/>
+        <v>11.8672589795919</v>
+      </c>
+      <c r="G22" s="51">
+        <f t="shared" si="7"/>
+        <v>6.03485224274407</v>
+      </c>
+      <c r="H22" s="51">
+        <f t="shared" si="7"/>
+        <v>3.91983780411728</v>
+      </c>
+      <c r="I22" s="51" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="51" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="51" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="23" s="26" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="53">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="54">
         <f>(C17-C4)/(C4-C9)</f>
         <v>2.32275927930944</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="D23" s="54">
+        <f t="shared" ref="D23:K23" si="8">(D17-D4)/(D4-D9)</f>
+        <v>2.24944681908548</v>
+      </c>
+      <c r="E23" s="54">
+        <f t="shared" si="8"/>
+        <v>8.43106270627062</v>
+      </c>
+      <c r="F23" s="54">
+        <f t="shared" si="8"/>
+        <v>16.8992857142857</v>
+      </c>
+      <c r="G23" s="54">
+        <f t="shared" si="8"/>
+        <v>4.35492981530343</v>
+      </c>
+      <c r="H23" s="54">
+        <f t="shared" si="8"/>
+        <v>11.3907342482845</v>
+      </c>
+      <c r="I23" s="54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="54" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:11">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="43">
+        <v>32</v>
+      </c>
+      <c r="C24" s="48">
         <f>(C18-C4)/(C4-C9)</f>
         <v>1.76205065407062</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-    </row>
-    <row r="25" ht="26" customHeight="1" spans="1:11">
-      <c r="A25" s="55" t="s">
-        <v>46</v>
+      <c r="D24" s="48">
+        <f t="shared" ref="D24:K24" si="9">(D18-D4)/(D4-D9)</f>
+        <v>1.07931038767395</v>
+      </c>
+      <c r="E24" s="48">
+        <f t="shared" si="9"/>
+        <v>5.9512805280528</v>
+      </c>
+      <c r="F24" s="48">
+        <f t="shared" si="9"/>
+        <v>14.3832723469388</v>
+      </c>
+      <c r="G24" s="48">
+        <f t="shared" si="9"/>
+        <v>5.19489102902375</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="9"/>
+        <v>7.65528602620087</v>
+      </c>
+      <c r="I24" s="48" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="48" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="48" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" ht="105" customHeight="1" spans="1:11">
+      <c r="A25" s="56" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="56"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="56"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="56"/>
+      <c r="K25" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2525,13 +2509,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G27" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2543,11 +2527,11 @@
   <sheetData>
     <row r="1" ht="21.75" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2562,36 +2546,36 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="21.75" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3">
@@ -2624,43 +2608,43 @@
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3">
         <v>20.17</v>
@@ -2693,7 +2677,7 @@
     <row r="6" ht="22.5" customHeight="1" spans="1:11">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6">
         <v>0.3422</v>
@@ -2725,10 +2709,10 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4">
         <v>4.84</v>
@@ -2761,7 +2745,7 @@
     <row r="8" ht="22.5" customHeight="1" spans="1:11">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C8" s="10">
         <v>0.4067</v>
@@ -2793,43 +2777,43 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4">
         <v>20</v>
@@ -2862,7 +2846,7 @@
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4">
         <v>22</v>
@@ -2895,7 +2879,7 @@
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
       <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4">
         <v>22.77</v>
@@ -2927,10 +2911,10 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:11">
       <c r="A13" s="13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" ref="C13:K13" si="0">(C10/C5)^(1/3)-1</f>
@@ -2972,7 +2956,7 @@
     <row r="14" ht="22.5" customHeight="1" spans="1:11">
       <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" ref="C14:F14" si="1">(C11/C5)^(1/3)-1</f>
@@ -3013,10 +2997,10 @@
     </row>
     <row r="15" ht="39.75" customHeight="1" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C15" s="15">
         <v>0.108</v>
@@ -3048,10 +3032,10 @@
     </row>
     <row r="16" ht="64.5" customHeight="1" spans="1:11">
       <c r="A16" s="13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C16" s="16">
         <v>0.0305</v>
@@ -3083,10 +3067,10 @@
     </row>
     <row r="17" ht="32.25" customHeight="1" spans="1:11">
       <c r="A17" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C17" s="19">
         <f t="shared" ref="C17:J17" si="3">(1+C13)*(1+C15)+C16-1</f>
@@ -3128,7 +3112,7 @@
     <row r="18" ht="32.25" customHeight="1" spans="1:11">
       <c r="A18" s="14"/>
       <c r="B18" s="20" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" ref="C18:J18" si="5">(1+C14)*(1+C15)+C16-1</f>
@@ -3169,30 +3153,30 @@
     </row>
     <row r="19" ht="99.75" customHeight="1" spans="1:11">
       <c r="A19" s="22" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="24" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="24" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="23.25" customHeight="1" spans="1:11">
       <c r="A20" s="25" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>

--- a/18 financial/具体计算.xlsx
+++ b/18 financial/具体计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10125"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="自定义估算" sheetId="2" r:id="rId1"/>
@@ -538,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,12 +578,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,10 +1024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,16 +1036,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,52 +1057,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1117,16 +1111,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,41 +1135,38 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,9 +1284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1305,16 +1296,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,10 +1314,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1671,8 +1662,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2013,9 +2004,9 @@
       <c r="H13" s="34">
         <v>15</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" ht="31" customHeight="1" spans="1:11">
       <c r="A14" s="35"/>
@@ -2049,441 +2040,441 @@
       <c r="B15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="36">
         <f>(C13+C14)/2</f>
         <v>11.3</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="36">
         <f t="shared" ref="D15:K15" si="0">(D13+D14)/2</f>
         <v>25</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="36">
         <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <f t="shared" si="0"/>
         <v>13.695</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="36">
         <f t="shared" si="0"/>
         <v>37.535</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="36">
         <f t="shared" si="0"/>
         <v>24.085</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:11">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="40">
         <f>C10*(1+C12/100)^C11*C13</f>
         <v>13.8883213328384</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="40">
         <f t="shared" ref="D16:K16" si="1">D10*(1+D12/100)^D11*D13</f>
         <v>23.543145</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <f t="shared" si="1"/>
         <v>100.1832</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <f t="shared" si="1"/>
         <v>11.7049569</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <f t="shared" si="1"/>
         <v>52.66209</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="40">
         <f t="shared" si="1"/>
         <v>49.4325</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="28" customHeight="1" spans="1:11">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="40">
         <f>C10*(1+C12/100)^C11*C14</f>
         <v>17.4992848793764</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="40">
         <f t="shared" ref="D17:K17" si="2">D10*(1+D12/100)^D11*D14</f>
         <v>35.3147175</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <f t="shared" si="2"/>
         <v>175.3206</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <f t="shared" si="2"/>
         <v>14.17065</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <f t="shared" si="2"/>
         <v>46.295184</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="40">
         <f t="shared" si="2"/>
         <v>109.311735</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:11">
-      <c r="A18" s="43"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="40">
         <f>C10*(1+C12/100)^C11*C15</f>
         <v>15.6938031061074</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="40">
         <f t="shared" ref="D18:K18" si="3">D10*(1+D12/100)^D11*D15</f>
         <v>29.42893125</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="40">
         <f t="shared" si="3"/>
         <v>137.7519</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <f t="shared" si="3"/>
         <v>12.93780345</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="40">
         <f t="shared" si="3"/>
         <v>49.478637</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="40">
         <f t="shared" si="3"/>
         <v>79.3721175</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:11">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="44">
         <f>POWER(C16-C4,1/C11)</f>
         <v>1.56978743154219</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="44">
         <f t="shared" ref="D19:K19" si="4">POWER(D16-D4,1/D11)</f>
         <v>-0.770180988545423</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="44">
         <f t="shared" si="4"/>
         <v>3.74665063899516</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <f t="shared" si="4"/>
         <v>1.79824488385494</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="44">
         <f t="shared" si="4"/>
         <v>2.83858530678729</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="44">
         <f t="shared" si="4"/>
         <v>3.15542024719762</v>
       </c>
-      <c r="I19" s="45" t="e">
+      <c r="I19" s="44" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="45" t="e">
+      <c r="J19" s="44" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="45" t="e">
+      <c r="K19" s="44" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" ht="32" customHeight="1" spans="1:11">
-      <c r="A20" s="42"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <f>POWER(C17-C4,1/C11)</f>
         <v>1.95563000427576</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <f t="shared" ref="D20:K20" si="5">POWER(D17-D4,1/D11)</f>
         <v>2.24499083168793</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <f t="shared" si="5"/>
         <v>5.03614606274692</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <f t="shared" si="5"/>
         <v>2.02311922104365</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <f t="shared" si="5"/>
         <v>2.54608827387445</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <f t="shared" si="5"/>
         <v>4.50282513956162</v>
       </c>
-      <c r="I20" s="47" t="e">
+      <c r="I20" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="47" t="e">
+      <c r="J20" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="47" t="e">
+      <c r="K20" s="46" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:11">
-      <c r="A21" s="43"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="47">
         <f>POWER(C18-C4,1/C11)</f>
         <v>1.78357518042579</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="47">
         <f t="shared" ref="D21:K21" si="6">POWER(D18-D4,1/D11)</f>
         <v>1.75753823029462</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="47">
         <f t="shared" si="6"/>
         <v>4.48409031991937</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="47">
         <f t="shared" si="6"/>
         <v>1.91727581780647</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="47">
         <f t="shared" si="6"/>
         <v>2.70025772574121</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="47">
         <f t="shared" si="6"/>
         <v>3.94416416436612</v>
       </c>
-      <c r="I21" s="48" t="e">
+      <c r="I21" s="47" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="48" t="e">
+      <c r="J21" s="47" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="48" t="e">
+      <c r="K21" s="47" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" s="26" customFormat="1" ht="27" customHeight="1" spans="1:11">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <f>(C16-C4)/(C4-C9)</f>
         <v>1.2013420288318</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="50">
         <f t="shared" ref="D22:K22" si="7">(D16-D4)/(D4-D9)</f>
         <v>-0.0908260437375754</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="50">
         <f t="shared" si="7"/>
         <v>3.47149834983498</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="50">
         <f t="shared" si="7"/>
         <v>11.8672589795919</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="50">
         <f t="shared" si="7"/>
         <v>6.03485224274407</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="50">
         <f t="shared" si="7"/>
         <v>3.91983780411728</v>
       </c>
-      <c r="I22" s="51" t="e">
+      <c r="I22" s="50" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="51" t="e">
+      <c r="J22" s="50" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="51" t="e">
+      <c r="K22" s="50" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" s="26" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="53">
         <f>(C17-C4)/(C4-C9)</f>
         <v>2.32275927930944</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="53">
         <f t="shared" ref="D23:K23" si="8">(D17-D4)/(D4-D9)</f>
         <v>2.24944681908548</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="53">
         <f t="shared" si="8"/>
         <v>8.43106270627062</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="53">
         <f t="shared" si="8"/>
         <v>16.8992857142857</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="53">
         <f t="shared" si="8"/>
         <v>4.35492981530343</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="53">
         <f t="shared" si="8"/>
         <v>11.3907342482845</v>
       </c>
-      <c r="I23" s="54" t="e">
+      <c r="I23" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="54" t="e">
+      <c r="J23" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="54" t="e">
+      <c r="K23" s="53" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:11">
-      <c r="A24" s="55"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="47">
         <f>(C18-C4)/(C4-C9)</f>
         <v>1.76205065407062</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="47">
         <f t="shared" ref="D24:K24" si="9">(D18-D4)/(D4-D9)</f>
         <v>1.07931038767395</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="47">
         <f t="shared" si="9"/>
         <v>5.9512805280528</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="47">
         <f t="shared" si="9"/>
         <v>14.3832723469388</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="47">
         <f t="shared" si="9"/>
         <v>5.19489102902375</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="47">
         <f t="shared" si="9"/>
         <v>7.65528602620087</v>
       </c>
-      <c r="I24" s="48" t="e">
+      <c r="I24" s="47" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="48" t="e">
+      <c r="J24" s="47" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="48" t="e">
+      <c r="K24" s="47" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" ht="105" customHeight="1" spans="1:11">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="55" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="57"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="57"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="57"/>
+      <c r="K25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
